--- a/biology/Zoologie/Eucoleus_dispar/Eucoleus_dispar.xlsx
+++ b/biology/Zoologie/Eucoleus_dispar/Eucoleus_dispar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucoleus dispar est une espèce de nématodes de la famille des Capillariidae, parasite d'oiseaux.
 </t>
@@ -511,9 +523,11 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucoleus dispar parasite de nombreuses espèces d'oiseaux, notamment des phasianidés et des rapaces diurnes et nocturnes, mais aussi passereaux et anatidés[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucoleus dispar parasite de nombreuses espèces d'oiseaux, notamment des phasianidés et des rapaces diurnes et nocturnes, mais aussi passereaux et anatidés :
 Autour des palombes (Accipiter gentilis)
 Buse variable (Buteo buteo)
 Buse féroce (Buteo rufinus)
@@ -572,9 +586,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en 1845 par le biologiste français Félix Dujardin, sous le protonyme Trichosoma dispar, d'après des spécimens trouvés dans l'œsophage d'un Faucon hobereau (Falco subbuteo)[2]. En 1915, le zoologiste brésilien Lauro Pereira Travassos place l'espèce dans le genre Capillaria (sous-genre Thominx)[3], puis en 1947, le parasitologiste espagnol Carlos Rodríguez López-Neyra déplace l'espèce dans le genre Eucoleus[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en 1845 par le biologiste français Félix Dujardin, sous le protonyme Trichosoma dispar, d'après des spécimens trouvés dans l'œsophage d'un Faucon hobereau (Falco subbuteo). En 1915, le zoologiste brésilien Lauro Pereira Travassos place l'espèce dans le genre Capillaria (sous-genre Thominx), puis en 1947, le parasitologiste espagnol Carlos Rodríguez López-Neyra déplace l'espèce dans le genre Eucoleus,.
 </t>
         </is>
       </c>
